--- a/MyDeptApp/20161229/MyDeptApp_ProbableDuplicates.xlsx
+++ b/MyDeptApp/20161229/MyDeptApp_ProbableDuplicates.xlsx
@@ -16,11 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,7 +25,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -38,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -46,19 +42,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="Date" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -421,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -433,7 +425,7 @@
     <col width="33" customWidth="1" min="1" max="1"/>
     <col width="27" customWidth="1" min="2" max="2"/>
     <col width="26" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
     <col width="3" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -449,6 +441,10 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -491,17 +487,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BROWN</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TONI</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>11884</v>
-      </c>
+          <t>PEARL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>F</t>
@@ -509,17 +503,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>10012</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10579</t>
+          <t>10752</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13091</t>
+          <t>13845</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>14600</t>
         </is>
       </c>
     </row>
@@ -531,40 +530,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>WILLIAMS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BILL</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>39624</v>
-      </c>
+          <t>PAULINE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10006</t>
+          <t>10018</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11823</t>
+          <t>11973</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12539</t>
+          <t>14935</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>13578</t>
+          <t>18422</t>
         </is>
       </c>
     </row>
@@ -581,12 +578,10 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PEARL</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>21418</v>
-      </c>
+          <t>JULIE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>F</t>
@@ -594,22 +589,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10012</t>
+          <t>10024</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10752</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>13845</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>14600</t>
+          <t>10856</t>
         </is>
       </c>
     </row>
@@ -621,40 +606,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WILLIAMS</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PAULINE</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>26400</v>
-      </c>
+          <t>ROLF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10018</t>
+          <t>10030</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11973</t>
+          <t>11007</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14935</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>18422</t>
+          <t>12774</t>
         </is>
       </c>
     </row>
@@ -671,12 +649,10 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JULIE</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>39501</v>
-      </c>
+          <t>JAYNE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>F</t>
@@ -684,12 +660,32 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10024</t>
+          <t>10035</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10856</t>
+          <t>10273</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12703</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>14346</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>16637</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>18792</t>
         </is>
       </c>
     </row>
@@ -701,35 +697,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>JONES</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ROLF</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>39092</v>
-      </c>
+          <t>TINA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10030</t>
+          <t>10040</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11007</t>
+          <t>11583</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12774</t>
+          <t>13466</t>
         </is>
       </c>
     </row>
@@ -741,17 +735,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>JONES</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JAYNE</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>26293</v>
-      </c>
+          <t>ANA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>F</t>
@@ -759,22 +751,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10035</t>
+          <t>10045</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10273</t>
+          <t>10066</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16637</t>
+          <t>11135</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>18792</t>
+          <t>18565</t>
         </is>
       </c>
     </row>
@@ -786,30 +778,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JONES</t>
+          <t>WILLIAMS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TINA</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>23551</v>
-      </c>
+          <t>DANIEL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10040</t>
+          <t>10050</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13466</t>
+          <t>14314</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17294</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>17776</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>18482</t>
         </is>
       </c>
     </row>
@@ -821,17 +826,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JONES</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ANA</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>31580</v>
-      </c>
+          <t>LINDA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>F</t>
@@ -839,17 +842,92 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10045</t>
+          <t>10083</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10066</t>
+          <t>10278</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>18565</t>
+          <t>11453</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>13124</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>13483</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>13510</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>14340</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>15028</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>15702</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>16102</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>16332</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>16398</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>17014</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>18559</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>18715</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>19721</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>19862</t>
         </is>
       </c>
     </row>
@@ -861,17 +939,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WILLIAMS</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DANIEL</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>40309</v>
-      </c>
+          <t>RAMON</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>M</t>
@@ -879,22 +955,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10050</t>
+          <t>10105</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14314</t>
+          <t>11649</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>17776</t>
+          <t>14374</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>18482</t>
+          <t>16349</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>18493</t>
         </is>
       </c>
     </row>
@@ -906,90 +987,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>WILLIAMS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LINDA</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>19316</v>
-      </c>
+          <t>GLENN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10083</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10278</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>13124</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>13483</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>14340</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>15028</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>15702</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>16332</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>16398</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>18559</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>18715</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>19721</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>19862</t>
+          <t>18433</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1020,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>JONES</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RAMON</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>27869</v>
-      </c>
+          <t>ANDRE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>M</t>
@@ -1019,22 +1036,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10105</t>
+          <t>10210</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14374</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>16349</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>18493</t>
+          <t>19695</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1053,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MARTIN</t>
+          <t>JOHNSON</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PEGGY</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>18701</v>
-      </c>
+          <t>ROSALINDA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>F</t>
@@ -1064,27 +1069,72 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10335</t>
+          <t>10216</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11780</t>
+          <t>11344</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13075</t>
+          <t>11866</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15917</t>
+          <t>12366</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>19624</t>
+          <t>12512</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>15329</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>15404</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>15938</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>16343</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>16553</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>18107</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>18210</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>18289</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>18761</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1146,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KYLE</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>34540</v>
-      </c>
+          <t>DAVID</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>M</t>
@@ -1114,12 +1162,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10379</t>
+          <t>10262</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15483</t>
+          <t>11103</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>11534</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>13304</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>17049</t>
         </is>
       </c>
     </row>
@@ -1131,17 +1194,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TAYLOR</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TIM</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>31272</v>
-      </c>
+          <t>VICTOR</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>M</t>
@@ -1149,57 +1210,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10384</t>
+          <t>10309</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10617</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>11915</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>12824</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>13694</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>15922</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>17147</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>17938</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>18987</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>19555</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>19940</t>
+          <t>11786</t>
         </is>
       </c>
     </row>
@@ -1211,50 +1227,53 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JONES</t>
+          <t>MARTIN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ROBERT</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>40439</v>
-      </c>
+          <t>PEGGY</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10402</t>
+          <t>10335</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11610</t>
+          <t>11780</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11720</t>
+          <t>12903</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15575</t>
+          <t>13075</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>17322</t>
+          <t>15917</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>18665</t>
+          <t>19112</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>19624</t>
         </is>
       </c>
     </row>
@@ -1271,45 +1290,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SHELLY</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>40781</v>
-      </c>
+          <t>KYLE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10408</t>
+          <t>10379</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11691</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>15580</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>15724</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>15795</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>18835</t>
+          <t>15483</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1323,10 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>KEVIN</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>42414</v>
-      </c>
+          <t>TIM</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>M</t>
@@ -1339,22 +1334,57 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10425</t>
+          <t>10384</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10873</t>
+          <t>10617</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>12223</t>
+          <t>11915</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12392</t>
+          <t>12824</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>13694</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>15922</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>17147</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>17938</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>18987</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>19555</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>19940</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1401,10 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JANIE</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>29568</v>
-      </c>
+          <t>VIRGINIA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>F</t>
@@ -1384,42 +1412,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10691</t>
+          <t>10390</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11047</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>11058</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>12056</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>15233</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>15300</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>16840</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>18526</t>
+          <t>10762</t>
         </is>
       </c>
     </row>
@@ -1431,17 +1429,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>JONES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EDWARD</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>27869</v>
-      </c>
+          <t>ROBERT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>M</t>
@@ -1449,12 +1445,37 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10713</t>
+          <t>10402</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16014</t>
+          <t>11610</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>11720</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>13709</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>15575</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>17322</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>18665</t>
         </is>
       </c>
     </row>
@@ -1466,30 +1487,48 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TAYLOR</t>
+          <t>JOHNSON</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ROBERT</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>31272</v>
-      </c>
+          <t>SHELLY</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10946</t>
+          <t>10408</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17506</t>
+          <t>11691</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>15580</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>15724</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>15795</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>18835</t>
         </is>
       </c>
     </row>
@@ -1501,70 +1540,48 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WHITE</t>
+          <t>TAYLOR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ROSEMARY</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>24554</v>
-      </c>
+          <t>KEVIN</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10963</t>
+          <t>10425</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12408</t>
+          <t>10873</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>13741</t>
+          <t>12223</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13763</t>
+          <t>12392</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>15248</t>
+          <t>15117</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>15692</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>16590</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>16835</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>18295</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>18404</t>
+          <t>17898</t>
         </is>
       </c>
     </row>
@@ -1576,30 +1593,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>BROWN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DAVID</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>39624</v>
-      </c>
+          <t>SARA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11103</t>
+          <t>10464</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13304</t>
+          <t>13197</t>
         </is>
       </c>
     </row>
@@ -1619,9 +1634,7 @@
           <t>AMANDA</t>
         </is>
       </c>
-      <c r="D25" s="1" t="n">
-        <v>26572</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>F</t>
@@ -1629,30 +1642,50 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>10496</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>11232</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>11983</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>12692</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>13101</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>13107</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>13407</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>15018</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>15894</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>16454</t>
         </is>
@@ -1666,17 +1699,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>WILLIAMS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PHILIP</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>32949</v>
-      </c>
+          <t>STEVE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>M</t>
@@ -1684,12 +1715,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>11415</t>
+          <t>10502</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14813</t>
+          <t>13688</t>
         </is>
       </c>
     </row>
@@ -1701,17 +1732,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>BROWN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CRYSTAL</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>38550</v>
-      </c>
+          <t>MIRANDA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>F</t>
@@ -1719,17 +1748,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11626</t>
+          <t>10534</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18626</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>19828</t>
+          <t>17949</t>
         </is>
       </c>
     </row>
@@ -1741,35 +1765,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>JONES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ROBERT</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>34540</v>
-      </c>
+          <t>BARBARA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>11741</t>
+          <t>10540</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>17187</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>18940</t>
+          <t>19385</t>
         </is>
       </c>
     </row>
@@ -1781,17 +1798,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>BROWN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ROSALINDA</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>42475</v>
-      </c>
+          <t>TONI</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>F</t>
@@ -1799,57 +1814,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>11866</t>
+          <t>10579</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12366</t>
+          <t>13091</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12512</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>15329</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>15404</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>15938</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>16343</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>16553</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>18210</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>18289</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>18761</t>
+          <t>13266</t>
         </is>
       </c>
     </row>
@@ -1861,17 +1836,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JOHNSON</t>
+          <t>WILLIAMS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FRED</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>34540</v>
-      </c>
+          <t>WILLIAM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>M</t>
@@ -1879,42 +1852,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>11978</t>
+          <t>10589</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12613</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>13250</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>15044</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>15422</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>16107</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>17650</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>18515</t>
+          <t>11697</t>
         </is>
       </c>
     </row>
@@ -1926,30 +1869,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TAYLOR</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CHARLES</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>31333</v>
-      </c>
+          <t>KATHERINE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>10611</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12291</t>
+          <t>15312</t>
         </is>
       </c>
     </row>
@@ -1961,30 +1902,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MARTIN-MARTIN</t>
+          <t>WHITE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PEGGY</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>18701</v>
-      </c>
+          <t>KARL</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>12468</t>
+          <t>10627</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16179</t>
+          <t>12697</t>
         </is>
       </c>
     </row>
@@ -1996,17 +1935,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JOHNSON-SMITH</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SHELLY</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>40781</v>
-      </c>
+          <t>JANIE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>F</t>
@@ -2014,12 +1951,57 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12501</t>
+          <t>10691</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18997</t>
+          <t>11047</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>11058</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>11589</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>12056</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>14125</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>15233</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>15300</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>16840</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>18526</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>19917</t>
         </is>
       </c>
     </row>
@@ -2031,17 +2013,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MARTIN-SMITH</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PEGGY</t>
-        </is>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>18701</v>
-      </c>
+          <t>KATIE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>F</t>
@@ -2049,12 +2029,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>13047</t>
+          <t>10697</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15258</t>
+          <t>12676</t>
         </is>
       </c>
     </row>
@@ -2066,30 +2046,33 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JONES</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MARY</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>40623</v>
-      </c>
+          <t>EDWARD</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>13298</t>
+          <t>10713</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18905</t>
+          <t>12211</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>16014</t>
         </is>
       </c>
     </row>
@@ -2101,30 +2084,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MARTIN-WILSON</t>
+          <t>WILLIAMS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PEGGY</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>18701</v>
-      </c>
+          <t>THOMAS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>13385</t>
+          <t>10735</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15625</t>
+          <t>18006</t>
         </is>
       </c>
     </row>
@@ -2136,30 +2117,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BROWN-SMITH</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CHRISTINE</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>40962</v>
-      </c>
+          <t>RANDY</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>13504</t>
+          <t>10741</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>16704</t>
+          <t>12891</t>
         </is>
       </c>
     </row>
@@ -2171,55 +2150,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WILLIAMS</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DONALD</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>34606</v>
-      </c>
+          <t>MILDRED</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>13699</t>
+          <t>10746</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14192</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>14452</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>16229</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>16299</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>17747</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>19279</t>
+          <t>15871</t>
         </is>
       </c>
     </row>
@@ -2231,40 +2183,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BROWN</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CHRISTINE</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>40962</v>
-      </c>
+          <t>PAUL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>14325</t>
+          <t>10790</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14689</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>14759</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>19390</t>
+          <t>12618</t>
         </is>
       </c>
     </row>
@@ -2276,17 +2216,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WILLIAMS-BROWN</t>
+          <t>BROWN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PAULINE</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>26400</v>
-      </c>
+          <t>LOIS</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>F</t>
@@ -2294,12 +2232,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>14930</t>
+          <t>10817</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17516</t>
+          <t>13811</t>
         </is>
       </c>
     </row>
@@ -2311,17 +2249,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WILLIAMS</t>
+          <t>BROWN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JEFFREY</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>34971</v>
-      </c>
+          <t>CHRISTOPHER</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>M</t>
@@ -2329,12 +2265,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>18499</t>
+          <t>10878</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18681</t>
+          <t>16464</t>
         </is>
       </c>
     </row>
@@ -2346,28 +2282,2072 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>TAYLOR</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ROBERT</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10946</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>17506</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>WHITE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ROSEMARY</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10963</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>12408</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>13741</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>13763</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>15248</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>15692</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>16590</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>16835</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>18295</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>18404</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ALIDA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>11052</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>19064</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CARMEN</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>11086</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>16090</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ROGER</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>11383</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>14239</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PHILIP</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>11415</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>14813</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>19100</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>JOHNSON-BROWN</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ROSALINDA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>11550</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>18168</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>18554</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DIANA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>11594</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>12818</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>11626</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>18626</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>19828</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>JONES</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DANNY</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>11714</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>16642</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>JOHNSON</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ROBERT</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>11741</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>17187</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>18940</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>11765</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>19479</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MARY</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>11808</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>12638</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BILL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>11823</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>12539</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>13578</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>JONES</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>TIFFANY</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>11932</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>15193</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>JOHNSON</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>FRED</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>11978</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>12613</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>13250</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>15044</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>15422</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>16107</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>17650</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>17887</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>18515</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TAYLOR</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CHARLES</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>12291</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BRIAN</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>12033</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>13834</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>WILLIAMS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DONALD</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>12129</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>13326</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>13699</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>14192</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>14452</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>16229</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>16299</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>17747</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>19279</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ELBA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>12376</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>19161</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DUSTIN</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>12402</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>17703</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MARTIN-MARTIN</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PEGGY</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>12468</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>16179</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MARION</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>12474</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>17137</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>JOHNSON-SMITH</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SHELLY</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>12501</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>18997</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>JONES</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MICHAEL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>12549</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>13611</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>14159</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TAMMY</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>12813</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>14458</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SMITH-SMITH</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>12923</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>18922</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MARTIN-SMITH</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PEGGY</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>13047</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>15258</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>WESLEY</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>13112</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>14208</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>KEITH</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>13157</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>13374</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ONA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>13227</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>19335</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>JONES</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MARY</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>13298</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>16052</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>18905</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MARTIN-WILSON</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PEGGY</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>13385</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>15625</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BROWN-SMITH</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CHRISTINE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>16704</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>18659</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JONES</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>GRACE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>13704</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>15410</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>WILLIAMS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CHARLES</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>13907</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>14363</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>LATASHA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>14143</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>19895</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CHRISTINE</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>14325</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>14689</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>14759</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>19390</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BRENDA</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>14379</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>14749</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>TODD</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>14498</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>18345</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>KEENAN</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>14515</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>15527</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>JONES</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DANIEL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>14743</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>17494</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>WILLIAMS-BROWN</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PAULINE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>14930</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>17516</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>JOHNSON-SMITH</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ROSALINDA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>14951</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>19485</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MONIKA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>15112</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>18263</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>KATHERINE</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>15227</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>15677</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>18393</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>WILLIAMS</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ALBERT</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>15713</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>18205</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ERNEST</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>15718</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>19652</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>JONES</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>KATIE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>16432</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>18894</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DENNIS</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>16779</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>19318</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CANDACE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>17204</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>19884</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>RENEE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>17305</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>17995</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>JONES</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>LEATHA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>17765</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>18745</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>BROWN</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>JANICE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>17846</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>WILLIAMS</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>JEFFREY</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>18499</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>18681</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SMITH</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>JARED</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>18934</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>19037</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>JONES</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PETER</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>18955</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>19380</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Probable duplicate patients</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>WILLIAMS</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>JAMES</t>
         </is>
       </c>
-      <c r="D42" s="1" t="n">
-        <v>34606</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
         <is>
           <t>19095</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>19868</t>
         </is>
